--- a/Income/KHC_inc.xlsx
+++ b/Income/KHC_inc.xlsx
@@ -1894,16 +1894,16 @@
         <v>0.3517</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.3434</v>
+        <v>0.3438</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.3346</v>
+        <v>0.3351</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.323</v>
+        <v>0.3234</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3257</v>
+        <v>0.3262</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3259</v>
@@ -2382,7 +2382,7 @@
         <v>0.1655</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.167</v>
+        <v>0.1669</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0.2007</v>
@@ -3354,16 +3354,16 @@
         <v>0.2504</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.2469</v>
+        <v>0.2171</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.2386</v>
+        <v>0.2084</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.2061</v>
+        <v>0.1756</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.1811</v>
+        <v>0.1505</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>-0.4326</v>
